--- a/results/Saif_a_advanced.xlsx
+++ b/results/Saif_a_advanced.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="Saif_a_advanced" sheetId="1" r:id="rId1"/>
@@ -45,6 +45,9 @@
     <t>fileName</t>
   </si>
   <si>
+    <t>f * goldCount</t>
+  </si>
+  <si>
     <t>IN</t>
   </si>
   <si>
@@ -181,9 +184,6 @@
   </si>
   <si>
     <t>WP$</t>
-  </si>
-  <si>
-    <t>f*gold count</t>
   </si>
   <si>
     <t>average f by gold</t>
@@ -1014,10 +1014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1028,12 +1028,10 @@
     <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1059,18 +1057,18 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>54</v>
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>55</v>
       </c>
       <c r="L1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1091,24 +1089,24 @@
         <v>384</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I2">
         <f>D2*E2</f>
         <v>384</v>
       </c>
+      <c r="K2">
+        <f>SUM(I2:I46)/SUM(E2:E46)</f>
+        <v>0.85539229866969535</v>
+      </c>
       <c r="L2">
-        <f>SUM(I2:I46)/SUM(E2:E46)</f>
-        <v>0.85543206965554097</v>
-      </c>
-      <c r="M2">
         <f>SUM(G2:G46)/SUM(E2:E46)</f>
-        <v>0.8510430645358058</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.8510023992517588</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1129,16 +1127,16 @@
         <v>63</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I46" si="0">D3*E3</f>
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1159,16 +1157,16 @@
         <v>2446</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
         <v>2446</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1189,16 +1187,16 @@
         <v>63</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1219,16 +1217,16 @@
         <v>1997</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
         <v>1997</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1249,16 +1247,16 @@
         <v>266</v>
       </c>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1279,16 +1277,16 @@
         <v>280</v>
       </c>
       <c r="H8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1309,226 +1307,226 @@
         <v>4</v>
       </c>
       <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>0.99507793273174705</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0.99753289473684204</v>
+      </c>
+      <c r="E10">
+        <v>1213</v>
+      </c>
+      <c r="F10">
+        <v>1219</v>
+      </c>
+      <c r="G10">
+        <v>1213</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>1210.0074013157894</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <v>0.997899159663865</v>
+      </c>
+      <c r="C11">
+        <v>0.99476439790575899</v>
+      </c>
+      <c r="D11">
+        <v>0.996329313057157</v>
+      </c>
+      <c r="E11">
+        <v>955</v>
+      </c>
+      <c r="F11">
+        <v>952</v>
+      </c>
+      <c r="G11">
+        <v>950</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>951.49449396958494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0.98214285714285698</v>
+      </c>
+      <c r="D12">
+        <v>0.99099099099098997</v>
+      </c>
+      <c r="E12">
+        <v>112</v>
+      </c>
+      <c r="F12">
+        <v>110</v>
+      </c>
+      <c r="G12">
+        <v>110</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>110.99099099099088</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>0.96019108280254695</v>
+      </c>
+      <c r="C13">
+        <v>0.99422918384171399</v>
+      </c>
+      <c r="D13">
+        <v>0.97691373025516404</v>
+      </c>
+      <c r="E13">
+        <v>1213</v>
+      </c>
+      <c r="F13">
+        <v>1256</v>
+      </c>
+      <c r="G13">
+        <v>1206</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>1184.9963547995139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0.96103896103896103</v>
+      </c>
+      <c r="E14">
+        <v>370</v>
+      </c>
+      <c r="F14">
+        <v>400</v>
+      </c>
+      <c r="G14">
+        <v>370</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>355.58441558441558</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15">
+        <v>0.9</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.94736842105263097</v>
+      </c>
+      <c r="E15">
         <v>9</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
         <v>9</v>
       </c>
-      <c r="F10">
-        <v>9</v>
-      </c>
-      <c r="G10">
-        <v>9</v>
-      </c>
-      <c r="H10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11">
-        <v>0.99507793273174705</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>0.99753289473684204</v>
-      </c>
-      <c r="E11">
-        <v>1213</v>
-      </c>
-      <c r="F11">
-        <v>1219</v>
-      </c>
-      <c r="G11">
-        <v>1213</v>
-      </c>
-      <c r="H11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>1210.0074013157894</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12">
-        <v>0.997899159663865</v>
-      </c>
-      <c r="C12">
-        <v>0.99476439790575899</v>
-      </c>
-      <c r="D12">
-        <v>0.996329313057157</v>
-      </c>
-      <c r="E12">
-        <v>955</v>
-      </c>
-      <c r="F12">
-        <v>952</v>
-      </c>
-      <c r="G12">
-        <v>950</v>
-      </c>
-      <c r="H12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
-        <v>951.49449396958494</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>0.98214285714285698</v>
-      </c>
-      <c r="D13">
-        <v>0.99099099099098997</v>
-      </c>
-      <c r="E13">
-        <v>112</v>
-      </c>
-      <c r="F13">
-        <v>110</v>
-      </c>
-      <c r="G13">
-        <v>110</v>
-      </c>
-      <c r="H13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>110.99099099099088</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14">
-        <v>0.96022275258552103</v>
-      </c>
-      <c r="C14">
-        <v>0.99505358615004103</v>
-      </c>
-      <c r="D14">
-        <v>0.97732793522267203</v>
-      </c>
-      <c r="E14">
-        <v>1213</v>
-      </c>
-      <c r="F14">
-        <v>1257</v>
-      </c>
-      <c r="G14">
-        <v>1207</v>
-      </c>
-      <c r="H14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>1185.4987854251012</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>0.96103896103896103</v>
-      </c>
-      <c r="E15">
-        <v>370</v>
-      </c>
-      <c r="F15">
-        <v>400</v>
-      </c>
-      <c r="G15">
-        <v>370</v>
-      </c>
       <c r="H15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>355.58441558441558</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>8.5263157894736779</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16">
-        <v>0.91336633663366296</v>
+        <v>0.913346837722259</v>
       </c>
       <c r="C16">
-        <v>0.94615384615384601</v>
+        <v>0.94592074592074504</v>
       </c>
       <c r="D16">
-        <v>0.92947103274559195</v>
+        <v>0.92934844841406095</v>
       </c>
       <c r="E16">
         <v>4290</v>
       </c>
       <c r="F16">
-        <v>4444</v>
+        <v>4443</v>
       </c>
       <c r="G16">
-        <v>4059</v>
+        <v>4058</v>
       </c>
       <c r="H16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>3987.4307304785893</v>
+        <v>3986.9048436963217</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17">
         <v>0.90543071161048605</v>
@@ -1549,7 +1547,7 @@
         <v>4835</v>
       </c>
       <c r="H17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
@@ -1558,7 +1556,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <v>0.98408104196816204</v>
@@ -1579,7 +1577,7 @@
         <v>1360</v>
       </c>
       <c r="H18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
@@ -1588,7 +1586,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0.93995552260934001</v>
@@ -1609,7 +1607,7 @@
         <v>2536</v>
       </c>
       <c r="H19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
@@ -1618,7 +1616,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <v>0.91379310344827502</v>
@@ -1639,7 +1637,7 @@
         <v>1007</v>
       </c>
       <c r="H20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
@@ -1648,7 +1646,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1669,7 +1667,7 @@
         <v>83</v>
       </c>
       <c r="H21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
@@ -1678,7 +1676,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B22">
         <v>0.88519878652402995</v>
@@ -1699,7 +1697,7 @@
         <v>5544</v>
       </c>
       <c r="H22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
@@ -1708,7 +1706,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23">
         <v>0.83699421965317899</v>
@@ -1729,7 +1727,7 @@
         <v>724</v>
       </c>
       <c r="H23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
@@ -1738,7 +1736,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24">
         <v>0.71946308724832198</v>
@@ -1759,7 +1757,7 @@
         <v>536</v>
       </c>
       <c r="H24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
@@ -1768,37 +1766,37 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.83918918918918906</v>
+        <v>0.838622552329507</v>
       </c>
       <c r="C25">
         <v>0.794625719769673</v>
       </c>
       <c r="D25">
-        <v>0.81629970423923703</v>
+        <v>0.81603153745072199</v>
       </c>
       <c r="E25">
         <v>1563</v>
       </c>
       <c r="F25">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="G25">
         <v>1242</v>
       </c>
       <c r="H25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I25">
         <f t="shared" si="0"/>
-        <v>1275.8764377259274</v>
+        <v>1275.4572930354784</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>0.79303675048355904</v>
@@ -1819,7 +1817,7 @@
         <v>1230</v>
       </c>
       <c r="H26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
@@ -1828,7 +1826,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B27">
         <v>0.88872549019607805</v>
@@ -1849,7 +1847,7 @@
         <v>3626</v>
       </c>
       <c r="H27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
@@ -1858,7 +1856,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28">
         <v>0.82291666666666596</v>
@@ -1879,7 +1877,7 @@
         <v>79</v>
       </c>
       <c r="H28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
@@ -1888,7 +1886,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B29">
         <v>0.78629690048939604</v>
@@ -1909,7 +1907,7 @@
         <v>482</v>
       </c>
       <c r="H29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I29">
         <f t="shared" si="0"/>
@@ -1918,7 +1916,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>0.73773645399166399</v>
@@ -1939,7 +1937,7 @@
         <v>2301</v>
       </c>
       <c r="H30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
@@ -1948,7 +1946,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>0.63398692810457502</v>
@@ -1969,7 +1967,7 @@
         <v>97</v>
       </c>
       <c r="H31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
@@ -1978,7 +1976,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B32">
         <v>0.51923076923076905</v>
@@ -1999,7 +1997,7 @@
         <v>864</v>
       </c>
       <c r="H32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
@@ -2008,7 +2006,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>0.83333333333333304</v>
@@ -2029,7 +2027,7 @@
         <v>120</v>
       </c>
       <c r="H33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I33">
         <f t="shared" si="0"/>
@@ -2038,7 +2036,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B34">
         <v>0.458292443572129</v>
@@ -2059,7 +2057,7 @@
         <v>467</v>
       </c>
       <c r="H34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
@@ -2068,7 +2066,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B35">
         <v>0.80616740088105698</v>
@@ -2089,7 +2087,7 @@
         <v>732</v>
       </c>
       <c r="H35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I35">
         <f t="shared" si="0"/>
@@ -2098,7 +2096,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B36">
         <v>0.94736842105263097</v>
@@ -2119,7 +2117,7 @@
         <v>18</v>
       </c>
       <c r="H36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I36">
         <f t="shared" si="0"/>
@@ -2128,37 +2126,37 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B37">
-        <v>0.34996220710506398</v>
+        <v>0.35022692889561202</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37">
-        <v>0.51847704367301195</v>
+        <v>0.51876750700280105</v>
       </c>
       <c r="E37">
         <v>463</v>
       </c>
       <c r="F37">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="G37">
         <v>463</v>
       </c>
       <c r="H37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I37">
         <f t="shared" si="0"/>
-        <v>240.05487122060453</v>
+        <v>240.1893557422969</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0.266666666666666</v>
@@ -2179,7 +2177,7 @@
         <v>12</v>
       </c>
       <c r="H38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I38">
         <f t="shared" si="0"/>
@@ -2188,37 +2186,37 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>0.4</v>
+        <v>0.36363636363636298</v>
       </c>
       <c r="C39">
         <v>0.19047619047618999</v>
       </c>
       <c r="D39">
-        <v>0.25806451612903197</v>
+        <v>0.25</v>
       </c>
       <c r="E39">
         <v>21</v>
       </c>
       <c r="F39">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G39">
         <v>4</v>
       </c>
       <c r="H39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I39">
         <f t="shared" si="0"/>
-        <v>5.4193548387096717</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40">
         <v>0.163487738419618</v>
@@ -2239,7 +2237,7 @@
         <v>60</v>
       </c>
       <c r="H40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I40">
         <f t="shared" si="0"/>
@@ -2248,7 +2246,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B41">
         <v>0.3</v>
@@ -2269,7 +2267,7 @@
         <v>12</v>
       </c>
       <c r="H41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I41">
         <f t="shared" si="0"/>
@@ -2278,7 +2276,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B42">
         <v>0.25</v>
@@ -2299,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I42">
         <f t="shared" si="0"/>
@@ -2308,7 +2306,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2329,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I43">
         <f t="shared" si="0"/>
@@ -2338,7 +2336,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2359,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I44">
         <f t="shared" si="0"/>
@@ -2368,7 +2366,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2389,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I45">
         <f t="shared" si="0"/>
@@ -2398,7 +2396,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -2419,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I46">
         <f t="shared" si="0"/>
@@ -2427,8 +2425,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H46">
-    <sortCondition descending="1" ref="D2:D46"/>
+  <sortState ref="A2:I91">
+    <sortCondition descending="1" ref="D2:D91"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
